--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/multialgorithm/submodels/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/submodels/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="700" windowWidth="25100" windowHeight="15540" tabRatio="989" activeTab="8"/>
+    <workbookView xWindow="-27600" yWindow="700" windowWidth="25100" windowHeight="15540" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,13 @@
     <sheet name="Database references" sheetId="16" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Compartments!$A$1:$F$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12">Parameters!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$E$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$F$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="12">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="8">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="14">References!$A$1:$E$1</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
   <si>
     <t>Id</t>
   </si>
@@ -1645,18 +1645,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="2"/>
+    <col min="1" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1670,13 +1670,16 @@
         <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1689,11 +1692,12 @@
       <c r="D2" s="5">
         <v>4.58E-17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
@@ -1706,12 +1710,13 @@
       <c r="D3" s="5">
         <v>9.9999999999999998E-13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:F3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -2095,7 +2100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
+    <sheetView zoomScale="126" zoomScaleNormal="126" zoomScalePageLayoutView="126" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2141,7 +2146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -2193,7 +2198,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>85</v>
       </c>
@@ -2214,7 +2219,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>88</v>
       </c>
@@ -2235,7 +2240,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" ht="26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>132</v>
       </c>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel_no_shared_species.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27600" yWindow="700" windowWidth="25100" windowHeight="15540" tabRatio="989" activeTab="3"/>
+    <workbookView xWindow="-27600" yWindow="700" windowWidth="25100" windowHeight="15540" tabRatio="989" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="147">
   <si>
     <t>Id</t>
   </si>
@@ -484,6 +484,21 @@
   </si>
   <si>
     <t>A species, specie_1, appears multiple times</t>
+  </si>
+  <si>
+    <t>abstract</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>submodel_3</t>
+  </si>
+  <si>
+    <t>Abstract test</t>
+  </si>
+  <si>
+    <t>specie_1[abstract]</t>
   </si>
 </sst>
 </file>
@@ -561,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -593,6 +608,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1557,15 +1581,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="144" zoomScaleNormal="144" zoomScalePageLayoutView="144" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,6 +1666,23 @@
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1645,15 +1693,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="121" zoomScaleNormal="121" zoomScalePageLayoutView="121" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="2"/>
+    <col min="1" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -1713,6 +1763,23 @@
       <c r="E3" s="5"/>
       <c r="F3" s="2" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.9999999999999998E-13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1919,111 +1986,141 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="15">
         <v>1.4799999999999999E-4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="15">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>1E-3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="15">
         <v>2E-3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="15" t="s">
         <v>67</v>
       </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="14">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="14" t="s">
         <v>136</v>
       </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2110,14 +2207,14 @@
     <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.83203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="10" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
